--- a/results/data/FW2.3.xlsx
+++ b/results/data/FW2.3.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>55960.97799999997</v>
+        <v>55960.978</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>89347.542</v>
+        <v>89347.54199999997</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>222082.5850000001</v>
+        <v>222082.585</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/FW2.3.xlsx
+++ b/results/data/FW2.3.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>55960.978</v>
+        <v>55952.595</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>89347.54199999997</v>
+        <v>88496.40499999998</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>222082.585</v>
+        <v>222082.345</v>
       </c>
     </row>
   </sheetData>
